--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK262"/>
+  <dimension ref="A1:BK263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3136,7 +3136,7 @@
         <v>1.53</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT16" t="n">
         <v>1.21</v>
@@ -4760,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU21" t="n">
         <v>1.25</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT33" t="n">
         <v>1</v>
@@ -8414,7 +8414,7 @@
         <v>2.07</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU39" t="n">
         <v>3.33</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT47" t="n">
         <v>0.87</v>
@@ -12474,7 +12474,7 @@
         <v>1.8</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU59" t="n">
         <v>1.74</v>
@@ -15719,7 +15719,7 @@
         <v>2.25</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT75" t="n">
         <v>2.21</v>
@@ -16331,7 +16331,7 @@
         <v>1.43</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU78" t="n">
         <v>1.63</v>
@@ -20794,7 +20794,7 @@
         <v>1.2</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT100" t="n">
         <v>1.4</v>
@@ -23636,7 +23636,7 @@
         <v>2.17</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT114" t="n">
         <v>2.4</v>
@@ -24451,7 +24451,7 @@
         <v>2.43</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU118" t="n">
         <v>2.69</v>
@@ -24854,7 +24854,7 @@
         <v>1.67</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT120" t="n">
         <v>1.57</v>
@@ -25872,7 +25872,7 @@
         <v>1.21</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU125" t="n">
         <v>1.59</v>
@@ -28305,7 +28305,7 @@
         <v>0.86</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT137" t="n">
         <v>0.79</v>
@@ -29932,7 +29932,7 @@
         <v>1.2</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU145" t="n">
         <v>1.65</v>
@@ -33180,7 +33180,7 @@
         <v>0.86</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU161" t="n">
         <v>1.38</v>
@@ -34801,7 +34801,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT169" t="n">
         <v>0.33</v>
@@ -35816,7 +35816,7 @@
         <v>2.4</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT174" t="n">
         <v>2.07</v>
@@ -37646,7 +37646,7 @@
         <v>1.2</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU183" t="n">
         <v>2</v>
@@ -39470,7 +39470,7 @@
         <v>1.18</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT192" t="n">
         <v>1.07</v>
@@ -41706,7 +41706,7 @@
         <v>1.86</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU203" t="n">
         <v>2.06</v>
@@ -43327,7 +43327,7 @@
         <v>0.36</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT211" t="n">
         <v>0.5</v>
@@ -45969,7 +45969,7 @@
         <v>2.64</v>
       </c>
       <c r="AT224" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU224" t="n">
         <v>2.36</v>
@@ -46372,7 +46372,7 @@
         <v>1.42</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT226" t="n">
         <v>1.21</v>
@@ -47390,7 +47390,7 @@
         <v>1.53</v>
       </c>
       <c r="AT231" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU231" t="n">
         <v>1.49</v>
@@ -51044,7 +51044,7 @@
         <v>2.57</v>
       </c>
       <c r="AT249" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU249" t="n">
         <v>2.05</v>
@@ -52868,7 +52868,7 @@
         <v>1.57</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT258" t="n">
         <v>1.67</v>
@@ -53735,6 +53735,209 @@
       </c>
       <c r="BK262" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="n">
+        <v>2433252</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="n">
+        <v>45037.625</v>
+      </c>
+      <c r="F263" t="n">
+        <v>30</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>Volendam</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Cambuur</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>1</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="n">
+        <v>2</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N263" t="n">
+        <v>2</v>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>['39', '90']</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q263" t="n">
+        <v>9</v>
+      </c>
+      <c r="R263" t="n">
+        <v>5</v>
+      </c>
+      <c r="S263" t="n">
+        <v>14</v>
+      </c>
+      <c r="T263" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U263" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V263" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W263" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X263" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Z263" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB263" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC263" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD263" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE263" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF263" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG263" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH263" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI263" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ263" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK263" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL263" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM263" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AN263" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO263" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP263" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ263" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR263" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS263" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT263" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU263" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV263" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW263" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX263" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY263" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ263" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA263" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB263" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC263" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD263" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BE263" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BF263" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG263" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH263" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI263" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ263" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK263" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK263"/>
+  <dimension ref="A1:BK268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0.4</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT12" t="n">
         <v>1.67</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>1.93</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AU24" t="n">
         <v>1.06</v>
@@ -5975,10 +5975,10 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU27" t="n">
         <v>1.3</v>
@@ -6384,7 +6384,7 @@
         <v>2.43</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU29" t="n">
         <v>2.62</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU30" t="n">
         <v>1.2</v>
@@ -6790,7 +6790,7 @@
         <v>1.53</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AU31" t="n">
         <v>1.79</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT35" t="n">
         <v>0.53</v>
@@ -7802,10 +7802,10 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU36" t="n">
         <v>2.34</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AT40" t="n">
         <v>1.67</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT42" t="n">
         <v>2.4</v>
@@ -9226,7 +9226,7 @@
         <v>1.8</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU43" t="n">
         <v>1.3</v>
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT45" t="n">
         <v>1.21</v>
@@ -10241,7 +10241,7 @@
         <v>1.2</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU48" t="n">
         <v>1.63</v>
@@ -10647,7 +10647,7 @@
         <v>1.53</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU50" t="n">
         <v>1.36</v>
@@ -11050,7 +11050,7 @@
         <v>1</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT52" t="n">
         <v>0.79</v>
@@ -11662,7 +11662,7 @@
         <v>2.43</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU55" t="n">
         <v>2.49</v>
@@ -12677,7 +12677,7 @@
         <v>1</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU60" t="n">
         <v>1.75</v>
@@ -12877,10 +12877,10 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU61" t="n">
         <v>1.47</v>
@@ -13080,7 +13080,7 @@
         <v>3</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT62" t="n">
         <v>2.4</v>
@@ -13283,7 +13283,7 @@
         <v>1.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT63" t="n">
         <v>1</v>
@@ -13489,7 +13489,7 @@
         <v>1.86</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AU64" t="n">
         <v>2.46</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AT68" t="n">
         <v>1.07</v>
@@ -15113,7 +15113,7 @@
         <v>1.8</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU72" t="n">
         <v>1.69</v>
@@ -15722,7 +15722,7 @@
         <v>1.47</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AU75" t="n">
         <v>1.85</v>
@@ -15925,7 +15925,7 @@
         <v>1.93</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU76" t="n">
         <v>1.45</v>
@@ -16128,7 +16128,7 @@
         <v>1.2</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU77" t="n">
         <v>1.77</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT78" t="n">
         <v>0.67</v>
@@ -16937,7 +16937,7 @@
         <v>1.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT81" t="n">
         <v>1.67</v>
@@ -17143,7 +17143,7 @@
         <v>1</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU82" t="n">
         <v>1.65</v>
@@ -17749,7 +17749,7 @@
         <v>1.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT85" t="n">
         <v>1.4</v>
@@ -18358,7 +18358,7 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AT88" t="n">
         <v>0.33</v>
@@ -18561,7 +18561,7 @@
         <v>1.75</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT89" t="n">
         <v>1.57</v>
@@ -18970,7 +18970,7 @@
         <v>2.07</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU91" t="n">
         <v>2.88</v>
@@ -19173,7 +19173,7 @@
         <v>2.43</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU92" t="n">
         <v>2.48</v>
@@ -19376,7 +19376,7 @@
         <v>1.8</v>
       </c>
       <c r="AT93" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AU93" t="n">
         <v>1.68</v>
@@ -19579,7 +19579,7 @@
         <v>1</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU94" t="n">
         <v>1.51</v>
@@ -20594,7 +20594,7 @@
         <v>1.53</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU99" t="n">
         <v>1.55</v>
@@ -20997,7 +20997,7 @@
         <v>1.4</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT101" t="n">
         <v>1.57</v>
@@ -21203,7 +21203,7 @@
         <v>1.93</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU102" t="n">
         <v>1.56</v>
@@ -21403,10 +21403,10 @@
         <v>0.67</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU103" t="n">
         <v>1.77</v>
@@ -21809,7 +21809,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT105" t="n">
         <v>1.21</v>
@@ -22012,7 +22012,7 @@
         <v>1.2</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AT106" t="n">
         <v>0.79</v>
@@ -22624,7 +22624,7 @@
         <v>1</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU109" t="n">
         <v>1.56</v>
@@ -22827,7 +22827,7 @@
         <v>1</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU110" t="n">
         <v>1.74</v>
@@ -23433,7 +23433,7 @@
         <v>1</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AT113" t="n">
         <v>0.87</v>
@@ -25060,7 +25060,7 @@
         <v>1.2</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AU121" t="n">
         <v>1.65</v>
@@ -25260,7 +25260,7 @@
         <v>2.14</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT122" t="n">
         <v>2.07</v>
@@ -25669,7 +25669,7 @@
         <v>0.86</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU124" t="n">
         <v>1.44</v>
@@ -25869,7 +25869,7 @@
         <v>0.83</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT125" t="n">
         <v>0.67</v>
@@ -26075,7 +26075,7 @@
         <v>2.43</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU126" t="n">
         <v>2.62</v>
@@ -26275,7 +26275,7 @@
         <v>1.17</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT127" t="n">
         <v>1.07</v>
@@ -26478,10 +26478,10 @@
         <v>0.43</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU128" t="n">
         <v>2.1</v>
@@ -27290,10 +27290,10 @@
         <v>1.33</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU132" t="n">
         <v>2.35</v>
@@ -27699,7 +27699,7 @@
         <v>1.2</v>
       </c>
       <c r="AT134" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AU134" t="n">
         <v>2.06</v>
@@ -28508,7 +28508,7 @@
         <v>2.25</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT138" t="n">
         <v>2.07</v>
@@ -28917,7 +28917,7 @@
         <v>1.93</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU140" t="n">
         <v>1.58</v>
@@ -29523,7 +29523,7 @@
         <v>1.86</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT143" t="n">
         <v>1.57</v>
@@ -30338,7 +30338,7 @@
         <v>1.2</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU147" t="n">
         <v>1.9</v>
@@ -30538,7 +30538,7 @@
         <v>1.13</v>
       </c>
       <c r="AS148" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT148" t="n">
         <v>1.07</v>
@@ -30744,7 +30744,7 @@
         <v>0.4</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU149" t="n">
         <v>1.61</v>
@@ -30944,7 +30944,7 @@
         <v>0.63</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT150" t="n">
         <v>0.33</v>
@@ -31150,7 +31150,7 @@
         <v>2.43</v>
       </c>
       <c r="AT151" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AU151" t="n">
         <v>2.65</v>
@@ -31350,7 +31350,7 @@
         <v>1.75</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AT152" t="n">
         <v>1.57</v>
@@ -31556,7 +31556,7 @@
         <v>1.86</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU153" t="n">
         <v>1.98</v>
@@ -32162,7 +32162,7 @@
         <v>2.33</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT156" t="n">
         <v>2.07</v>
@@ -32774,7 +32774,7 @@
         <v>1.53</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU159" t="n">
         <v>1.54</v>
@@ -33583,7 +33583,7 @@
         <v>1.29</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT163" t="n">
         <v>0.87</v>
@@ -33789,7 +33789,7 @@
         <v>1.8</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU164" t="n">
         <v>1.62</v>
@@ -33992,7 +33992,7 @@
         <v>1.2</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU165" t="n">
         <v>1.91</v>
@@ -34192,7 +34192,7 @@
         <v>1</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT166" t="n">
         <v>1.07</v>
@@ -34598,7 +34598,7 @@
         <v>2.22</v>
       </c>
       <c r="AS168" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AT168" t="n">
         <v>2.4</v>
@@ -35007,7 +35007,7 @@
         <v>1.53</v>
       </c>
       <c r="AT170" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AU170" t="n">
         <v>1.49</v>
@@ -35210,7 +35210,7 @@
         <v>0.4</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU171" t="n">
         <v>1.61</v>
@@ -35616,7 +35616,7 @@
         <v>1</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU173" t="n">
         <v>1.6</v>
@@ -36631,7 +36631,7 @@
         <v>0.4</v>
       </c>
       <c r="AT178" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AU178" t="n">
         <v>1.55</v>
@@ -37034,7 +37034,7 @@
         <v>1.11</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT180" t="n">
         <v>1.21</v>
@@ -37443,7 +37443,7 @@
         <v>1.86</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU182" t="n">
         <v>1.98</v>
@@ -37846,7 +37846,7 @@
         <v>0.5</v>
       </c>
       <c r="AS184" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT184" t="n">
         <v>0.33</v>
@@ -38052,7 +38052,7 @@
         <v>1.2</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU185" t="n">
         <v>1.61</v>
@@ -38455,7 +38455,7 @@
         <v>2.1</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT187" t="n">
         <v>2.4</v>
@@ -39064,7 +39064,7 @@
         <v>0.7</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AT190" t="n">
         <v>0.53</v>
@@ -39270,7 +39270,7 @@
         <v>1.8</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU191" t="n">
         <v>1.52</v>
@@ -39676,7 +39676,7 @@
         <v>0.86</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU193" t="n">
         <v>1.55</v>
@@ -40282,7 +40282,7 @@
         <v>1.1</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT196" t="n">
         <v>1</v>
@@ -40691,7 +40691,7 @@
         <v>2.07</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU198" t="n">
         <v>2.78</v>
@@ -41300,7 +41300,7 @@
         <v>0.86</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU201" t="n">
         <v>1.54</v>
@@ -41500,7 +41500,7 @@
         <v>0.73</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT202" t="n">
         <v>0.79</v>
@@ -42315,7 +42315,7 @@
         <v>1</v>
       </c>
       <c r="AT206" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AU206" t="n">
         <v>1.73</v>
@@ -42718,7 +42718,7 @@
         <v>1</v>
       </c>
       <c r="AS208" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT208" t="n">
         <v>1</v>
@@ -42924,7 +42924,7 @@
         <v>1.53</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU209" t="n">
         <v>1.58</v>
@@ -43330,7 +43330,7 @@
         <v>1.47</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU211" t="n">
         <v>1.51</v>
@@ -43733,7 +43733,7 @@
         <v>1.45</v>
       </c>
       <c r="AS213" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AT213" t="n">
         <v>1.4</v>
@@ -43939,7 +43939,7 @@
         <v>1.53</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU214" t="n">
         <v>1.47</v>
@@ -44751,7 +44751,7 @@
         <v>1.2</v>
       </c>
       <c r="AT218" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU218" t="n">
         <v>1.54</v>
@@ -45763,10 +45763,10 @@
         <v>2.25</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT223" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AU223" t="n">
         <v>1.78</v>
@@ -45966,7 +45966,7 @@
         <v>0.91</v>
       </c>
       <c r="AS224" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT224" t="n">
         <v>0.67</v>
@@ -46375,7 +46375,7 @@
         <v>1.47</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU226" t="n">
         <v>1.57</v>
@@ -46781,7 +46781,7 @@
         <v>1.2</v>
       </c>
       <c r="AT228" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU228" t="n">
         <v>1.53</v>
@@ -47996,7 +47996,7 @@
         <v>2.15</v>
       </c>
       <c r="AS234" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AT234" t="n">
         <v>2.07</v>
@@ -48608,7 +48608,7 @@
         <v>0.4</v>
       </c>
       <c r="AT237" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU237" t="n">
         <v>1.45</v>
@@ -49214,10 +49214,10 @@
         <v>2.31</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT240" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AU240" t="n">
         <v>1.51</v>
@@ -50432,10 +50432,10 @@
         <v>0.31</v>
       </c>
       <c r="AS246" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT246" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AU246" t="n">
         <v>2.44</v>
@@ -50638,7 +50638,7 @@
         <v>1.86</v>
       </c>
       <c r="AT247" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU247" t="n">
         <v>1.98</v>
@@ -50838,7 +50838,7 @@
         <v>0.57</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT248" t="n">
         <v>0.53</v>
@@ -51041,7 +51041,7 @@
         <v>0.77</v>
       </c>
       <c r="AS249" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AT249" t="n">
         <v>0.67</v>
@@ -51450,7 +51450,7 @@
         <v>2.07</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU251" t="n">
         <v>2.63</v>
@@ -53277,7 +53277,7 @@
         <v>2.07</v>
       </c>
       <c r="AT260" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU260" t="n">
         <v>2.62</v>
@@ -53680,7 +53680,7 @@
         <v>0.85</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT262" t="n">
         <v>0.79</v>
@@ -53938,6 +53938,1021 @@
       </c>
       <c r="BK263" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="n">
+        <v>2433256</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="n">
+        <v>45038.57291666666</v>
+      </c>
+      <c r="F264" t="n">
+        <v>30</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Emmen</t>
+        </is>
+      </c>
+      <c r="I264" t="n">
+        <v>1</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="n">
+        <v>2</v>
+      </c>
+      <c r="M264" t="n">
+        <v>3</v>
+      </c>
+      <c r="N264" t="n">
+        <v>5</v>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>['21', '59']</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>['47', '75', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q264" t="n">
+        <v>10</v>
+      </c>
+      <c r="R264" t="n">
+        <v>5</v>
+      </c>
+      <c r="S264" t="n">
+        <v>15</v>
+      </c>
+      <c r="T264" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U264" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V264" t="n">
+        <v>5</v>
+      </c>
+      <c r="W264" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X264" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC264" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD264" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE264" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF264" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG264" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH264" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI264" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ264" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK264" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL264" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM264" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN264" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO264" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP264" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ264" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR264" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS264" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT264" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU264" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV264" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW264" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX264" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY264" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ264" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BA264" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB264" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC264" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD264" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE264" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF264" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG264" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH264" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI264" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ264" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK264" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="n">
+        <v>2433257</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E265" s="2" t="n">
+        <v>45038.66666666666</v>
+      </c>
+      <c r="F265" t="n">
+        <v>30</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N265" t="n">
+        <v>0</v>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q265" t="n">
+        <v>17</v>
+      </c>
+      <c r="R265" t="n">
+        <v>3</v>
+      </c>
+      <c r="S265" t="n">
+        <v>20</v>
+      </c>
+      <c r="T265" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U265" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="V265" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="W265" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X265" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC265" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD265" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE265" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF265" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG265" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH265" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI265" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ265" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK265" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL265" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM265" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AN265" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO265" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP265" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AQ265" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR265" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AS265" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT265" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU265" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV265" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW265" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX265" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY265" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ265" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BA265" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB265" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC265" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BD265" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BE265" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BF265" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG265" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH265" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI265" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ265" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK265" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="n">
+        <v>2433251</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E266" s="2" t="n">
+        <v>45039.30208333334</v>
+      </c>
+      <c r="F266" t="n">
+        <v>30</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>1</v>
+      </c>
+      <c r="J266" t="n">
+        <v>2</v>
+      </c>
+      <c r="K266" t="n">
+        <v>3</v>
+      </c>
+      <c r="L266" t="n">
+        <v>3</v>
+      </c>
+      <c r="M266" t="n">
+        <v>3</v>
+      </c>
+      <c r="N266" t="n">
+        <v>6</v>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>['22', '65', '67']</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>['32', '42', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q266" t="n">
+        <v>17</v>
+      </c>
+      <c r="R266" t="n">
+        <v>6</v>
+      </c>
+      <c r="S266" t="n">
+        <v>23</v>
+      </c>
+      <c r="T266" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U266" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V266" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="W266" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X266" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y266" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z266" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB266" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC266" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD266" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE266" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF266" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG266" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH266" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI266" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ266" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK266" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL266" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM266" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AN266" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO266" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP266" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AQ266" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AR266" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS266" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AT266" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU266" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AV266" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW266" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX266" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AY266" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ266" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="BA266" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB266" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC266" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD266" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE266" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF266" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG266" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH266" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI266" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ266" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK266" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="n">
+        <v>2433254</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E267" s="2" t="n">
+        <v>45039.39583333334</v>
+      </c>
+      <c r="F267" t="n">
+        <v>30</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Go Ahead Eagles</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Fortuna Sittard</t>
+        </is>
+      </c>
+      <c r="I267" t="n">
+        <v>1</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="n">
+        <v>2</v>
+      </c>
+      <c r="M267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N267" t="n">
+        <v>2</v>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>['17', '75']</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q267" t="n">
+        <v>6</v>
+      </c>
+      <c r="R267" t="n">
+        <v>9</v>
+      </c>
+      <c r="S267" t="n">
+        <v>15</v>
+      </c>
+      <c r="T267" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U267" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V267" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="W267" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X267" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y267" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z267" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA267" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB267" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC267" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD267" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE267" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF267" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG267" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH267" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI267" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ267" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK267" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL267" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM267" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN267" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO267" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP267" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ267" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR267" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS267" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT267" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU267" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV267" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW267" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX267" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AY267" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ267" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA267" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB267" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC267" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD267" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE267" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF267" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG267" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH267" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI267" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ267" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK267" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="n">
+        <v>2433255</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E268" s="2" t="n">
+        <v>45039.39583333334</v>
+      </c>
+      <c r="F268" t="n">
+        <v>30</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="I268" t="n">
+        <v>1</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="n">
+        <v>3</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N268" t="n">
+        <v>3</v>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>['13', '54', '78']</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q268" t="n">
+        <v>5</v>
+      </c>
+      <c r="R268" t="n">
+        <v>5</v>
+      </c>
+      <c r="S268" t="n">
+        <v>10</v>
+      </c>
+      <c r="T268" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U268" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V268" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W268" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X268" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y268" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z268" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA268" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB268" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC268" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD268" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE268" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF268" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG268" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH268" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI268" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="AJ268" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK268" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL268" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AM268" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AN268" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO268" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP268" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ268" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AR268" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AS268" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT268" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AU268" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AV268" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AW268" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AX268" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY268" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ268" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BA268" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB268" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC268" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BD268" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE268" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF268" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG268" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH268" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI268" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ268" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK268" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK268"/>
+  <dimension ref="A1:BK271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>1.8</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT7" t="n">
         <v>0.53</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT10" t="n">
         <v>0.87</v>
@@ -3339,7 +3339,7 @@
         <v>1.2</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT15" t="n">
         <v>1.4</v>
@@ -3745,7 +3745,7 @@
         <v>1.47</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1.2</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU22" t="n">
         <v>1.48</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT23" t="n">
         <v>0.87</v>
@@ -6181,7 +6181,7 @@
         <v>1</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU28" t="n">
         <v>1.02</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT29" t="n">
         <v>0.67</v>
@@ -8005,10 +8005,10 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU37" t="n">
         <v>2.43</v>
@@ -8211,7 +8211,7 @@
         <v>1</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU38" t="n">
         <v>1.65</v>
@@ -9632,7 +9632,7 @@
         <v>1.13</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU45" t="n">
         <v>1.85</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT46" t="n">
         <v>1.07</v>
@@ -11053,7 +11053,7 @@
         <v>2.67</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU52" t="n">
         <v>2.55</v>
@@ -11456,7 +11456,7 @@
         <v>1.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT54" t="n">
         <v>1</v>
@@ -11659,7 +11659,7 @@
         <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT55" t="n">
         <v>1.6</v>
@@ -11865,7 +11865,7 @@
         <v>1.53</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU56" t="n">
         <v>1.41</v>
@@ -13486,7 +13486,7 @@
         <v>3</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT64" t="n">
         <v>2.07</v>
@@ -13892,7 +13892,7 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT66" t="n">
         <v>2.07</v>
@@ -14707,7 +14707,7 @@
         <v>1.53</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU70" t="n">
         <v>1.52</v>
@@ -15516,10 +15516,10 @@
         <v>0.67</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU74" t="n">
         <v>1.26</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT79" t="n">
         <v>1</v>
@@ -17549,7 +17549,7 @@
         <v>1</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU84" t="n">
         <v>1.86</v>
@@ -18158,7 +18158,7 @@
         <v>1.93</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU87" t="n">
         <v>1.53</v>
@@ -18564,7 +18564,7 @@
         <v>2.67</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU89" t="n">
         <v>2.84</v>
@@ -18764,7 +18764,7 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT90" t="n">
         <v>2.4</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT92" t="n">
         <v>1.13</v>
@@ -20185,7 +20185,7 @@
         <v>1.8</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT97" t="n">
         <v>1.67</v>
@@ -21000,7 +21000,7 @@
         <v>1.13</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU101" t="n">
         <v>1.47</v>
@@ -21812,7 +21812,7 @@
         <v>2.67</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU105" t="n">
         <v>2.62</v>
@@ -22015,7 +22015,7 @@
         <v>2.47</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU106" t="n">
         <v>2.11</v>
@@ -22215,7 +22215,7 @@
         <v>0.5</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT107" t="n">
         <v>0.53</v>
@@ -22421,7 +22421,7 @@
         <v>0.4</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU108" t="n">
         <v>1.62</v>
@@ -24448,7 +24448,7 @@
         <v>1</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT118" t="n">
         <v>0.67</v>
@@ -24857,7 +24857,7 @@
         <v>1.47</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU120" t="n">
         <v>1.66</v>
@@ -25466,7 +25466,7 @@
         <v>1.2</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU123" t="n">
         <v>1.88</v>
@@ -25666,7 +25666,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT124" t="n">
         <v>1.13</v>
@@ -26072,7 +26072,7 @@
         <v>0.57</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT126" t="n">
         <v>0.33</v>
@@ -26884,7 +26884,7 @@
         <v>1.14</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT130" t="n">
         <v>1.07</v>
@@ -28308,7 +28308,7 @@
         <v>1.47</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU137" t="n">
         <v>1.6</v>
@@ -29120,7 +29120,7 @@
         <v>1</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU141" t="n">
         <v>1.59</v>
@@ -29526,7 +29526,7 @@
         <v>1.53</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU143" t="n">
         <v>1.65</v>
@@ -29726,7 +29726,7 @@
         <v>2.13</v>
       </c>
       <c r="AS144" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT144" t="n">
         <v>2.4</v>
@@ -31147,7 +31147,7 @@
         <v>2.13</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT151" t="n">
         <v>2.07</v>
@@ -31353,7 +31353,7 @@
         <v>2.47</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU152" t="n">
         <v>2.11</v>
@@ -31553,7 +31553,7 @@
         <v>1.14</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT153" t="n">
         <v>1.13</v>
@@ -31962,7 +31962,7 @@
         <v>1.93</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU155" t="n">
         <v>1.61</v>
@@ -32974,10 +32974,10 @@
         <v>1.25</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU160" t="n">
         <v>2.52</v>
@@ -33177,7 +33177,7 @@
         <v>0.75</v>
       </c>
       <c r="AS161" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT161" t="n">
         <v>0.67</v>
@@ -34395,10 +34395,10 @@
         <v>1.56</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU167" t="n">
         <v>1.99</v>
@@ -36428,7 +36428,7 @@
         <v>1.53</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU177" t="n">
         <v>1.47</v>
@@ -36831,7 +36831,7 @@
         <v>1.44</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT179" t="n">
         <v>1.67</v>
@@ -37037,7 +37037,7 @@
         <v>1.53</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU180" t="n">
         <v>1.61</v>
@@ -37237,7 +37237,7 @@
         <v>1.11</v>
       </c>
       <c r="AS181" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT181" t="n">
         <v>1</v>
@@ -37440,7 +37440,7 @@
         <v>0.4</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT182" t="n">
         <v>0.33</v>
@@ -38661,7 +38661,7 @@
         <v>1</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU188" t="n">
         <v>1.76</v>
@@ -38864,7 +38864,7 @@
         <v>2.07</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU189" t="n">
         <v>2.82</v>
@@ -39673,7 +39673,7 @@
         <v>0.3</v>
       </c>
       <c r="AS193" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT193" t="n">
         <v>0.67</v>
@@ -39876,7 +39876,7 @@
         <v>2.27</v>
       </c>
       <c r="AS194" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT194" t="n">
         <v>2.07</v>
@@ -40894,7 +40894,7 @@
         <v>1.53</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU199" t="n">
         <v>1.48</v>
@@ -41097,7 +41097,7 @@
         <v>1.93</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU200" t="n">
         <v>1.65</v>
@@ -41297,7 +41297,7 @@
         <v>0.36</v>
       </c>
       <c r="AS201" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT201" t="n">
         <v>0.33</v>
@@ -41503,7 +41503,7 @@
         <v>1.13</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU202" t="n">
         <v>1.67</v>
@@ -41703,7 +41703,7 @@
         <v>1</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT203" t="n">
         <v>0.67</v>
@@ -43530,7 +43530,7 @@
         <v>0.45</v>
       </c>
       <c r="AS212" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT212" t="n">
         <v>0.33</v>
@@ -44345,7 +44345,7 @@
         <v>2.07</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU216" t="n">
         <v>2.77</v>
@@ -45154,7 +45154,7 @@
         <v>0.42</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT220" t="n">
         <v>0.33</v>
@@ -45563,7 +45563,7 @@
         <v>1.2</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU222" t="n">
         <v>2.02</v>
@@ -46169,7 +46169,7 @@
         <v>0.58</v>
       </c>
       <c r="AS225" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT225" t="n">
         <v>0.53</v>
@@ -46984,7 +46984,7 @@
         <v>1.8</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU229" t="n">
         <v>1.53</v>
@@ -47184,7 +47184,7 @@
         <v>1.42</v>
       </c>
       <c r="AS230" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT230" t="n">
         <v>1.4</v>
@@ -48199,7 +48199,7 @@
         <v>1.54</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT235" t="n">
         <v>1.4</v>
@@ -50026,10 +50026,10 @@
         <v>1.46</v>
       </c>
       <c r="AS244" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU244" t="n">
         <v>1.55</v>
@@ -50635,7 +50635,7 @@
         <v>1.54</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT247" t="n">
         <v>1.6</v>
@@ -51247,7 +51247,7 @@
         <v>1.2</v>
       </c>
       <c r="AT250" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU250" t="n">
         <v>1.54</v>
@@ -51650,10 +51650,10 @@
         <v>0.92</v>
       </c>
       <c r="AS252" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT252" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU252" t="n">
         <v>2.53</v>
@@ -53683,7 +53683,7 @@
         <v>1.53</v>
       </c>
       <c r="AT262" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU262" t="n">
         <v>1.47</v>
@@ -54554,7 +54554,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="n">
-        <v>2433254</v>
+        <v>2433255</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -54574,12 +54574,12 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="I267" t="n">
@@ -54592,17 +54592,17 @@
         <v>1</v>
       </c>
       <c r="L267" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M267" t="n">
         <v>0</v>
       </c>
       <c r="N267" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>['17', '75']</t>
+          <t>['13', '54', '78']</t>
         </is>
       </c>
       <c r="P267" t="inlineStr">
@@ -54611,145 +54611,145 @@
         </is>
       </c>
       <c r="Q267" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R267" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S267" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T267" t="n">
-        <v>2.6</v>
+        <v>2.95</v>
       </c>
       <c r="U267" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="V267" t="n">
-        <v>3.94</v>
+        <v>3.4</v>
       </c>
       <c r="W267" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="X267" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Y267" t="n">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="Z267" t="n">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="AA267" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB267" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AC267" t="n">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="AD267" t="n">
         <v>3.65</v>
       </c>
       <c r="AE267" t="n">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="AF267" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AG267" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AH267" t="n">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="AI267" t="n">
-        <v>3.75</v>
+        <v>4.87</v>
       </c>
       <c r="AJ267" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AK267" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AL267" t="n">
-        <v>1.68</v>
+        <v>1.47</v>
       </c>
       <c r="AM267" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="AN267" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AO267" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AP267" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AQ267" t="n">
-        <v>1.43</v>
+        <v>2.64</v>
       </c>
       <c r="AR267" t="n">
-        <v>1.21</v>
+        <v>2.21</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.53</v>
+        <v>2.67</v>
       </c>
       <c r="AT267" t="n">
-        <v>1.13</v>
+        <v>2.07</v>
       </c>
       <c r="AU267" t="n">
-        <v>1.55</v>
+        <v>2.39</v>
       </c>
       <c r="AV267" t="n">
-        <v>1.2</v>
+        <v>2.01</v>
       </c>
       <c r="AW267" t="n">
-        <v>2.75</v>
+        <v>4.4</v>
       </c>
       <c r="AX267" t="n">
-        <v>1.61</v>
+        <v>1.95</v>
       </c>
       <c r="AY267" t="n">
         <v>8</v>
       </c>
       <c r="AZ267" t="n">
-        <v>2.63</v>
+        <v>2.08</v>
       </c>
       <c r="BA267" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="BB267" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="BC267" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="BD267" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="BE267" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="BF267" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG267" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH267" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI267" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ267" t="n">
         <v>8</v>
       </c>
-      <c r="BH267" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI267" t="n">
-        <v>9</v>
-      </c>
-      <c r="BJ267" t="n">
-        <v>12</v>
-      </c>
       <c r="BK267" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="268">
@@ -54757,7 +54757,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="n">
-        <v>2433255</v>
+        <v>2433254</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -54777,12 +54777,12 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="I268" t="n">
@@ -54795,17 +54795,17 @@
         <v>1</v>
       </c>
       <c r="L268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M268" t="n">
         <v>0</v>
       </c>
       <c r="N268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>['13', '54', '78']</t>
+          <t>['17', '75']</t>
         </is>
       </c>
       <c r="P268" t="inlineStr">
@@ -54814,145 +54814,754 @@
         </is>
       </c>
       <c r="Q268" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R268" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S268" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T268" t="n">
-        <v>2.95</v>
+        <v>2.6</v>
       </c>
       <c r="U268" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="V268" t="n">
-        <v>3.4</v>
+        <v>3.94</v>
       </c>
       <c r="W268" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X268" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="Y268" t="n">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="Z268" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="AA268" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB268" t="n">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AC268" t="n">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="AD268" t="n">
         <v>3.65</v>
       </c>
       <c r="AE268" t="n">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="AF268" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AG268" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="AH268" t="n">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AI268" t="n">
-        <v>4.87</v>
+        <v>3.75</v>
       </c>
       <c r="AJ268" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AK268" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AL268" t="n">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="AM268" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="AN268" t="n">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="AO268" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="AP268" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AQ268" t="n">
-        <v>2.64</v>
+        <v>1.43</v>
       </c>
       <c r="AR268" t="n">
-        <v>2.21</v>
+        <v>1.21</v>
       </c>
       <c r="AS268" t="n">
-        <v>2.67</v>
+        <v>1.53</v>
       </c>
       <c r="AT268" t="n">
-        <v>2.07</v>
+        <v>1.13</v>
       </c>
       <c r="AU268" t="n">
-        <v>2.39</v>
+        <v>1.55</v>
       </c>
       <c r="AV268" t="n">
-        <v>2.01</v>
+        <v>1.2</v>
       </c>
       <c r="AW268" t="n">
-        <v>4.4</v>
+        <v>2.75</v>
       </c>
       <c r="AX268" t="n">
-        <v>1.95</v>
+        <v>1.61</v>
       </c>
       <c r="AY268" t="n">
         <v>8</v>
       </c>
       <c r="AZ268" t="n">
-        <v>2.08</v>
+        <v>2.63</v>
       </c>
       <c r="BA268" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB268" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC268" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD268" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE268" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF268" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG268" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH268" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI268" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ268" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK268" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" t="n">
+        <v>2433253</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E269" s="2" t="n">
+        <v>45039.48958333334</v>
+      </c>
+      <c r="F269" t="n">
+        <v>30</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="I269" t="n">
+        <v>1</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="n">
+        <v>3</v>
+      </c>
+      <c r="M269" t="n">
+        <v>1</v>
+      </c>
+      <c r="N269" t="n">
+        <v>4</v>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>['15', '54', '82']</t>
+        </is>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q269" t="n">
+        <v>4</v>
+      </c>
+      <c r="R269" t="n">
+        <v>0</v>
+      </c>
+      <c r="S269" t="n">
+        <v>4</v>
+      </c>
+      <c r="T269" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U269" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="V269" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="W269" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X269" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y269" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Z269" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA269" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB269" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC269" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD269" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE269" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF269" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG269" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH269" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI269" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ269" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK269" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL269" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM269" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN269" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO269" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP269" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AQ269" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AR269" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS269" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AT269" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AU269" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AV269" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW269" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AX269" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AY269" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AZ269" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA269" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB269" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC269" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BD269" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE269" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BF269" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG269" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH269" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI269" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ269" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK269" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="n">
+        <v>2433249</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E270" s="2" t="n">
+        <v>45039.625</v>
+      </c>
+      <c r="F270" t="n">
+        <v>30</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>RKC Waalwijk</t>
+        </is>
+      </c>
+      <c r="I270" t="n">
+        <v>1</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="n">
+        <v>3</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N270" t="n">
+        <v>3</v>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>['8', '50', '63']</t>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q270" t="n">
+        <v>8</v>
+      </c>
+      <c r="R270" t="n">
+        <v>0</v>
+      </c>
+      <c r="S270" t="n">
+        <v>8</v>
+      </c>
+      <c r="T270" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U270" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V270" t="n">
+        <v>7</v>
+      </c>
+      <c r="W270" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X270" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y270" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z270" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA270" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB270" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC270" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD270" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="AE270" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="AF270" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG270" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH270" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI270" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ270" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK270" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AL270" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM270" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN270" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO270" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP270" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AQ270" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR270" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AS270" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AT270" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU270" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AV270" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW270" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX270" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AY270" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ270" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BA270" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB270" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC270" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD270" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE270" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BF270" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG270" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH270" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI270" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ270" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK270" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="n">
+        <v>2433250</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E271" s="2" t="n">
+        <v>45041.41666666666</v>
+      </c>
+      <c r="F271" t="n">
+        <v>30</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Groningen</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>NEC</t>
+        </is>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0</v>
+      </c>
+      <c r="L271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M271" t="n">
+        <v>1</v>
+      </c>
+      <c r="N271" t="n">
+        <v>1</v>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q271" t="n">
+        <v>2</v>
+      </c>
+      <c r="R271" t="n">
+        <v>0</v>
+      </c>
+      <c r="S271" t="n">
+        <v>2</v>
+      </c>
+      <c r="T271" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U271" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V271" t="n">
+        <v>3</v>
+      </c>
+      <c r="W271" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X271" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y271" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z271" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA271" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB271" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC271" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD271" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE271" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF271" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG271" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH271" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI271" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ271" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK271" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL271" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM271" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN271" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AO271" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP271" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ271" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR271" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS271" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT271" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU271" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV271" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW271" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX271" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AY271" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ271" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BA271" t="n">
         <v>1.16</v>
       </c>
-      <c r="BB268" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="BC268" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="BD268" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="BE268" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="BF268" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG268" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH268" t="n">
+      <c r="BB271" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC271" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD271" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE271" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BF271" t="n">
         <v>2</v>
       </c>
-      <c r="BI268" t="n">
+      <c r="BG271" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH271" t="n">
         <v>4</v>
       </c>
-      <c r="BJ268" t="n">
-        <v>5</v>
-      </c>
-      <c r="BK268" t="n">
-        <v>7</v>
+      <c r="BI271" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ271" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK271" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -55423,13 +55423,13 @@
         </is>
       </c>
       <c r="Q271" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R271" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S271" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="T271" t="n">
         <v>3.3</v>
@@ -55546,22 +55546,22 @@
         <v>2.62</v>
       </c>
       <c r="BF271" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG271" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH271" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BI271" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BJ271" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BK271" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK271"/>
+  <dimension ref="A1:BK272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT6" t="n">
         <v>1.47</v>
@@ -1918,7 +1918,7 @@
         <v>0.8</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT25" t="n">
         <v>2.4</v>
@@ -7602,7 +7602,7 @@
         <v>2.67</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU35" t="n">
         <v>1.82</v>
@@ -8820,7 +8820,7 @@
         <v>1.93</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU41" t="n">
         <v>1.12</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT43" t="n">
         <v>0.33</v>
@@ -12271,7 +12271,7 @@
         <v>1</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU58" t="n">
         <v>1.55</v>
@@ -12471,7 +12471,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT59" t="n">
         <v>0.67</v>
@@ -14504,7 +14504,7 @@
         <v>1</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU69" t="n">
         <v>1.7</v>
@@ -15110,7 +15110,7 @@
         <v>1.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT72" t="n">
         <v>1.6</v>
@@ -17346,7 +17346,7 @@
         <v>1.2</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU83" t="n">
         <v>1.55</v>
@@ -19373,7 +19373,7 @@
         <v>2.4</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT93" t="n">
         <v>2.07</v>
@@ -22218,7 +22218,7 @@
         <v>1.93</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU107" t="n">
         <v>2.09</v>
@@ -24042,7 +24042,7 @@
         <v>2.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT116" t="n">
         <v>2.07</v>
@@ -26681,7 +26681,7 @@
         <v>1.71</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT129" t="n">
         <v>1.4</v>
@@ -27902,7 +27902,7 @@
         <v>0.4</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU135" t="n">
         <v>1.67</v>
@@ -30135,7 +30135,7 @@
         <v>1.53</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU146" t="n">
         <v>1.41</v>
@@ -33383,7 +33383,7 @@
         <v>2.07</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU162" t="n">
         <v>2.77</v>
@@ -33786,7 +33786,7 @@
         <v>0.33</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT164" t="n">
         <v>0.67</v>
@@ -35410,7 +35410,7 @@
         <v>1.13</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT172" t="n">
         <v>0.87</v>
@@ -39067,7 +39067,7 @@
         <v>2.47</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU190" t="n">
         <v>2.06</v>
@@ -39267,7 +39267,7 @@
         <v>1.4</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT191" t="n">
         <v>1.13</v>
@@ -41909,7 +41909,7 @@
         <v>1.2</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU204" t="n">
         <v>2.01</v>
@@ -44139,7 +44139,7 @@
         <v>1.36</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT215" t="n">
         <v>1.67</v>
@@ -46172,7 +46172,7 @@
         <v>2.47</v>
       </c>
       <c r="AT225" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU225" t="n">
         <v>2.52</v>
@@ -46981,7 +46981,7 @@
         <v>1.08</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT229" t="n">
         <v>1.33</v>
@@ -49011,7 +49011,7 @@
         <v>1</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT239" t="n">
         <v>1.07</v>
@@ -49623,7 +49623,7 @@
         <v>1.53</v>
       </c>
       <c r="AT242" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU242" t="n">
         <v>1.59</v>
@@ -50841,7 +50841,7 @@
         <v>1.13</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU248" t="n">
         <v>1.72</v>
@@ -52056,7 +52056,7 @@
         <v>0.36</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT254" t="n">
         <v>0.33</v>
@@ -55562,6 +55562,209 @@
       </c>
       <c r="BK271" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="n">
+        <v>2433264</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="n">
+        <v>45051.625</v>
+      </c>
+      <c r="F272" t="n">
+        <v>31</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>RKC Waalwijk</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Volendam</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>2</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="n">
+        <v>2</v>
+      </c>
+      <c r="L272" t="n">
+        <v>4</v>
+      </c>
+      <c r="M272" t="n">
+        <v>1</v>
+      </c>
+      <c r="N272" t="n">
+        <v>5</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>['3', '35', '49', '88']</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q272" t="n">
+        <v>4</v>
+      </c>
+      <c r="R272" t="n">
+        <v>8</v>
+      </c>
+      <c r="S272" t="n">
+        <v>12</v>
+      </c>
+      <c r="T272" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U272" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V272" t="n">
+        <v>4</v>
+      </c>
+      <c r="W272" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X272" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC272" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD272" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE272" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF272" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG272" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH272" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI272" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="AJ272" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK272" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AL272" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM272" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN272" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO272" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP272" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ272" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR272" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AS272" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT272" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU272" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV272" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW272" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX272" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY272" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ272" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BA272" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB272" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC272" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD272" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE272" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BF272" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG272" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH272" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI272" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ272" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK272" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK279"/>
+  <dimension ref="A1:BK280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT3" t="n">
         <v>2.07</v>
@@ -2730,7 +2730,7 @@
         <v>1.44</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT21" t="n">
         <v>0.67</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT38" t="n">
         <v>1.56</v>
@@ -9835,7 +9835,7 @@
         <v>0.8</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU46" t="n">
         <v>1.53</v>
@@ -10850,7 +10850,7 @@
         <v>1.53</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU51" t="n">
         <v>1.31</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT60" t="n">
         <v>0.33</v>
@@ -14301,7 +14301,7 @@
         <v>2.47</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU68" t="n">
         <v>1.96</v>
@@ -14501,7 +14501,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT69" t="n">
         <v>0.5</v>
@@ -17546,7 +17546,7 @@
         <v>1.25</v>
       </c>
       <c r="AS84" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT84" t="n">
         <v>0.73</v>
@@ -17955,7 +17955,7 @@
         <v>0.38</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU86" t="n">
         <v>1.85</v>
@@ -22824,7 +22824,7 @@
         <v>0</v>
       </c>
       <c r="AS110" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT110" t="n">
         <v>0.67</v>
@@ -24248,7 +24248,7 @@
         <v>2</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU117" t="n">
         <v>2.9</v>
@@ -26278,7 +26278,7 @@
         <v>1.5</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU127" t="n">
         <v>1.81</v>
@@ -26887,7 +26887,7 @@
         <v>1.93</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU130" t="n">
         <v>1.98</v>
@@ -27087,7 +27087,7 @@
         <v>1</v>
       </c>
       <c r="AS131" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT131" t="n">
         <v>0.87</v>
@@ -29320,7 +29320,7 @@
         <v>1.71</v>
       </c>
       <c r="AS142" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT142" t="n">
         <v>1.75</v>
@@ -30541,7 +30541,7 @@
         <v>2.67</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU148" t="n">
         <v>2.29</v>
@@ -32568,7 +32568,7 @@
         <v>1.63</v>
       </c>
       <c r="AS158" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT158" t="n">
         <v>1.5</v>
@@ -34195,7 +34195,7 @@
         <v>1.13</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU166" t="n">
         <v>1.73</v>
@@ -35613,7 +35613,7 @@
         <v>1.44</v>
       </c>
       <c r="AS173" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT173" t="n">
         <v>1.6</v>
@@ -36022,7 +36022,7 @@
         <v>1.13</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU175" t="n">
         <v>1.63</v>
@@ -39473,7 +39473,7 @@
         <v>1.47</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU192" t="n">
         <v>1.56</v>
@@ -42109,7 +42109,7 @@
         <v>2.18</v>
       </c>
       <c r="AS205" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT205" t="n">
         <v>2.44</v>
@@ -44951,7 +44951,7 @@
         <v>0.92</v>
       </c>
       <c r="AS219" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT219" t="n">
         <v>1.13</v>
@@ -45360,7 +45360,7 @@
         <v>1.81</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU221" t="n">
         <v>1.63</v>
@@ -49014,7 +49014,7 @@
         <v>1.88</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU239" t="n">
         <v>1.53</v>
@@ -49823,7 +49823,7 @@
         <v>0.38</v>
       </c>
       <c r="AS243" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT243" t="n">
         <v>0.38</v>
@@ -52465,7 +52465,7 @@
         <v>1.13</v>
       </c>
       <c r="AT256" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU256" t="n">
         <v>1.94</v>
@@ -53477,7 +53477,7 @@
         <v>2</v>
       </c>
       <c r="AS261" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT261" t="n">
         <v>2</v>
@@ -56844,13 +56844,13 @@
         </is>
       </c>
       <c r="Q278" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R278" t="n">
         <v>2</v>
       </c>
       <c r="S278" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T278" t="n">
         <v>8.5</v>
@@ -56967,22 +56967,22 @@
         <v>2</v>
       </c>
       <c r="BF278" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG278" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH278" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BI278" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ278" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BK278" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="279">
@@ -57047,13 +57047,13 @@
         </is>
       </c>
       <c r="Q279" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R279" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S279" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="T279" t="n">
         <v>2.3</v>
@@ -57170,22 +57170,225 @@
         <v>2.35</v>
       </c>
       <c r="BF279" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG279" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH279" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI279" t="n">
         <v>5</v>
       </c>
-      <c r="BG279" t="n">
+      <c r="BJ279" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK279" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="n">
+        <v>2433261</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E280" s="2" t="n">
+        <v>45053.48958333334</v>
+      </c>
+      <c r="F280" t="n">
+        <v>31</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Fortuna Sittard</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L280" t="n">
+        <v>2</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N280" t="n">
+        <v>2</v>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>['51', '76']</t>
+        </is>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q280" t="n">
+        <v>5</v>
+      </c>
+      <c r="R280" t="n">
+        <v>8</v>
+      </c>
+      <c r="S280" t="n">
+        <v>13</v>
+      </c>
+      <c r="T280" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U280" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V280" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W280" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X280" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z280" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB280" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC280" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AD280" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE280" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF280" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG280" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH280" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI280" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ280" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK280" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL280" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM280" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN280" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO280" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP280" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ280" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR280" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS280" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT280" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU280" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV280" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW280" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX280" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY280" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ280" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BA280" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB280" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC280" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BD280" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE280" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF280" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG280" t="n">
         <v>3</v>
       </c>
-      <c r="BH279" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI279" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ279" t="n">
-        <v>6</v>
-      </c>
-      <c r="BK279" t="n">
+      <c r="BH280" t="n">
         <v>4</v>
+      </c>
+      <c r="BI280" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ280" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK280" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK280"/>
+  <dimension ref="A1:BK281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3745,7 +3745,7 @@
         <v>1.47</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT18" t="n">
         <v>1.13</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT36" t="n">
         <v>0.33</v>
@@ -8008,7 +8008,7 @@
         <v>1.93</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU37" t="n">
         <v>2.43</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT40" t="n">
         <v>1.75</v>
@@ -9632,7 +9632,7 @@
         <v>1.13</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU45" t="n">
         <v>1.85</v>
@@ -11865,7 +11865,7 @@
         <v>1.53</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU56" t="n">
         <v>1.41</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT68" t="n">
         <v>1</v>
@@ -18158,7 +18158,7 @@
         <v>1.81</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU87" t="n">
         <v>1.53</v>
@@ -18358,7 +18358,7 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT88" t="n">
         <v>0.38</v>
@@ -21812,7 +21812,7 @@
         <v>2.67</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU105" t="n">
         <v>2.62</v>
@@ -22012,7 +22012,7 @@
         <v>1.2</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT106" t="n">
         <v>0.73</v>
@@ -22421,7 +22421,7 @@
         <v>0.38</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU108" t="n">
         <v>1.62</v>
@@ -23433,7 +23433,7 @@
         <v>1</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT113" t="n">
         <v>0.87</v>
@@ -26478,7 +26478,7 @@
         <v>0.43</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT128" t="n">
         <v>0.67</v>
@@ -29120,7 +29120,7 @@
         <v>1</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU141" t="n">
         <v>1.59</v>
@@ -31350,7 +31350,7 @@
         <v>1.75</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT152" t="n">
         <v>1.56</v>
@@ -32977,7 +32977,7 @@
         <v>2.47</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU160" t="n">
         <v>2.52</v>
@@ -34598,7 +34598,7 @@
         <v>2.22</v>
       </c>
       <c r="AS168" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT168" t="n">
         <v>2.44</v>
@@ -37037,7 +37037,7 @@
         <v>1.5</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU180" t="n">
         <v>1.61</v>
@@ -39064,7 +39064,7 @@
         <v>0.7</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT190" t="n">
         <v>0.5</v>
@@ -40894,7 +40894,7 @@
         <v>1.44</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU199" t="n">
         <v>1.48</v>
@@ -43733,7 +43733,7 @@
         <v>1.45</v>
       </c>
       <c r="AS213" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT213" t="n">
         <v>1.5</v>
@@ -44345,7 +44345,7 @@
         <v>2</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU216" t="n">
         <v>2.77</v>
@@ -46984,7 +46984,7 @@
         <v>1.88</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU229" t="n">
         <v>1.53</v>
@@ -47996,7 +47996,7 @@
         <v>2.15</v>
       </c>
       <c r="AS234" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT234" t="n">
         <v>2</v>
@@ -51041,7 +51041,7 @@
         <v>0.77</v>
       </c>
       <c r="AS249" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT249" t="n">
         <v>0.67</v>
@@ -51247,7 +51247,7 @@
         <v>1.13</v>
       </c>
       <c r="AT250" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU250" t="n">
         <v>1.54</v>
@@ -54492,7 +54492,7 @@
         <v>1.64</v>
       </c>
       <c r="AS266" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT266" t="n">
         <v>1.6</v>
@@ -55510,7 +55510,7 @@
         <v>0.8</v>
       </c>
       <c r="AT271" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU271" t="n">
         <v>1.49</v>
@@ -57389,6 +57389,209 @@
       </c>
       <c r="BK280" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="n">
+        <v>2433269</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E281" s="2" t="n">
+        <v>45058.625</v>
+      </c>
+      <c r="F281" t="n">
+        <v>32</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>NEC</t>
+        </is>
+      </c>
+      <c r="I281" t="n">
+        <v>1</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="n">
+        <v>4</v>
+      </c>
+      <c r="M281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N281" t="n">
+        <v>4</v>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>['38', '61', '76', '83']</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q281" t="n">
+        <v>7</v>
+      </c>
+      <c r="R281" t="n">
+        <v>3</v>
+      </c>
+      <c r="S281" t="n">
+        <v>10</v>
+      </c>
+      <c r="T281" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U281" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V281" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W281" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X281" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y281" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Z281" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA281" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB281" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC281" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AD281" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE281" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF281" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG281" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH281" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI281" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ281" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK281" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL281" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM281" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN281" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO281" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP281" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ281" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AR281" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS281" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT281" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU281" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AV281" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW281" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX281" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AY281" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ281" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="BA281" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB281" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC281" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD281" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE281" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF281" t="n">
+        <v>14</v>
+      </c>
+      <c r="BG281" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH281" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI281" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ281" t="n">
+        <v>29</v>
+      </c>
+      <c r="BK281" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK281"/>
+  <dimension ref="A1:BK289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.13</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1.13</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0.38</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT7" t="n">
         <v>0.5</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT8" t="n">
         <v>2.44</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.13</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT15" t="n">
         <v>1.5</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT16" t="n">
         <v>1.25</v>
@@ -4151,7 +4151,7 @@
         <v>2.5</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT20" t="n">
         <v>1.5</v>
@@ -4760,7 +4760,7 @@
         <v>1.13</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU21" t="n">
         <v>1.25</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU23" t="n">
         <v>1.81</v>
@@ -5369,7 +5369,7 @@
         <v>1.81</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU24" t="n">
         <v>1.06</v>
@@ -5978,7 +5978,7 @@
         <v>1.5</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU27" t="n">
         <v>1.3</v>
@@ -6178,10 +6178,10 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU28" t="n">
         <v>1.02</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU29" t="n">
         <v>2.62</v>
@@ -6587,7 +6587,7 @@
         <v>1.13</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU30" t="n">
         <v>1.2</v>
@@ -6787,10 +6787,10 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU31" t="n">
         <v>1.79</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT33" t="n">
         <v>1.13</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT35" t="n">
         <v>0.5</v>
@@ -7805,7 +7805,7 @@
         <v>2.5</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU36" t="n">
         <v>2.34</v>
@@ -8005,7 +8005,7 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT37" t="n">
         <v>1.25</v>
@@ -8414,7 +8414,7 @@
         <v>2</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU39" t="n">
         <v>3.33</v>
@@ -9226,7 +9226,7 @@
         <v>1.88</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU43" t="n">
         <v>1.3</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT46" t="n">
         <v>1</v>
@@ -10035,10 +10035,10 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU47" t="n">
         <v>1.81</v>
@@ -10241,7 +10241,7 @@
         <v>1.13</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU48" t="n">
         <v>1.63</v>
@@ -10647,7 +10647,7 @@
         <v>1.44</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU50" t="n">
         <v>1.36</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT51" t="n">
         <v>1</v>
@@ -11050,10 +11050,10 @@
         <v>1</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU52" t="n">
         <v>2.55</v>
@@ -11456,7 +11456,7 @@
         <v>1.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT54" t="n">
         <v>1.13</v>
@@ -11659,10 +11659,10 @@
         <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU55" t="n">
         <v>2.49</v>
@@ -11862,7 +11862,7 @@
         <v>1.67</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT56" t="n">
         <v>1.25</v>
@@ -12268,7 +12268,7 @@
         <v>0.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT58" t="n">
         <v>0.5</v>
@@ -12474,7 +12474,7 @@
         <v>1.88</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU59" t="n">
         <v>1.74</v>
@@ -12677,7 +12677,7 @@
         <v>1.13</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU60" t="n">
         <v>1.75</v>
@@ -12880,7 +12880,7 @@
         <v>1.5</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU61" t="n">
         <v>1.47</v>
@@ -13080,7 +13080,7 @@
         <v>3</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT62" t="n">
         <v>2.44</v>
@@ -13486,10 +13486,10 @@
         <v>3</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU64" t="n">
         <v>2.46</v>
@@ -13892,7 +13892,7 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT66" t="n">
         <v>2</v>
@@ -14098,7 +14098,7 @@
         <v>2</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU67" t="n">
         <v>2.85</v>
@@ -15113,7 +15113,7 @@
         <v>1.88</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU72" t="n">
         <v>1.69</v>
@@ -15516,10 +15516,10 @@
         <v>0.67</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU74" t="n">
         <v>1.26</v>
@@ -15719,10 +15719,10 @@
         <v>2.25</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU75" t="n">
         <v>1.85</v>
@@ -15925,7 +15925,7 @@
         <v>1.81</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU76" t="n">
         <v>1.45</v>
@@ -16128,7 +16128,7 @@
         <v>1.13</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU77" t="n">
         <v>1.77</v>
@@ -16331,7 +16331,7 @@
         <v>1.5</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU78" t="n">
         <v>1.63</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT79" t="n">
         <v>1.13</v>
@@ -16734,7 +16734,7 @@
         <v>3</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT80" t="n">
         <v>2</v>
@@ -17140,10 +17140,10 @@
         <v>0.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU82" t="n">
         <v>1.65</v>
@@ -17549,7 +17549,7 @@
         <v>1.13</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU84" t="n">
         <v>1.86</v>
@@ -18561,7 +18561,7 @@
         <v>1.75</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT89" t="n">
         <v>1.56</v>
@@ -18764,7 +18764,7 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT90" t="n">
         <v>2.44</v>
@@ -18970,7 +18970,7 @@
         <v>2</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU91" t="n">
         <v>2.88</v>
@@ -19170,10 +19170,10 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU92" t="n">
         <v>2.48</v>
@@ -19376,7 +19376,7 @@
         <v>1.88</v>
       </c>
       <c r="AT93" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU93" t="n">
         <v>1.68</v>
@@ -19576,10 +19576,10 @@
         <v>0</v>
       </c>
       <c r="AS94" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU94" t="n">
         <v>1.51</v>
@@ -20185,7 +20185,7 @@
         <v>1.8</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT97" t="n">
         <v>1.75</v>
@@ -20391,7 +20391,7 @@
         <v>1.13</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU98" t="n">
         <v>1.88</v>
@@ -20591,10 +20591,10 @@
         <v>1.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU99" t="n">
         <v>1.55</v>
@@ -20794,7 +20794,7 @@
         <v>1.2</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT100" t="n">
         <v>1.5</v>
@@ -21203,7 +21203,7 @@
         <v>1.81</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU102" t="n">
         <v>1.56</v>
@@ -21406,7 +21406,7 @@
         <v>1.5</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU103" t="n">
         <v>1.77</v>
@@ -21809,7 +21809,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT105" t="n">
         <v>1.25</v>
@@ -22015,7 +22015,7 @@
         <v>2.5</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU106" t="n">
         <v>2.11</v>
@@ -22215,7 +22215,7 @@
         <v>0.5</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT107" t="n">
         <v>0.5</v>
@@ -22621,10 +22621,10 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU109" t="n">
         <v>1.56</v>
@@ -22827,7 +22827,7 @@
         <v>1.13</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU110" t="n">
         <v>1.74</v>
@@ -23230,7 +23230,7 @@
         <v>0.83</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT112" t="n">
         <v>0.38</v>
@@ -23436,7 +23436,7 @@
         <v>2.5</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU113" t="n">
         <v>2.1</v>
@@ -23636,7 +23636,7 @@
         <v>2.17</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT114" t="n">
         <v>2.44</v>
@@ -24448,10 +24448,10 @@
         <v>1</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU118" t="n">
         <v>2.69</v>
@@ -24854,7 +24854,7 @@
         <v>1.67</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT120" t="n">
         <v>1.56</v>
@@ -25060,7 +25060,7 @@
         <v>1.13</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU121" t="n">
         <v>1.65</v>
@@ -25260,7 +25260,7 @@
         <v>2.14</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT122" t="n">
         <v>2</v>
@@ -25466,7 +25466,7 @@
         <v>1.13</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU123" t="n">
         <v>1.88</v>
@@ -25666,10 +25666,10 @@
         <v>0.83</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU124" t="n">
         <v>1.44</v>
@@ -25872,7 +25872,7 @@
         <v>1.13</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU125" t="n">
         <v>1.59</v>
@@ -26072,10 +26072,10 @@
         <v>0.57</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU126" t="n">
         <v>2.62</v>
@@ -26481,7 +26481,7 @@
         <v>2.5</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU128" t="n">
         <v>2.1</v>
@@ -26884,7 +26884,7 @@
         <v>1.14</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT130" t="n">
         <v>1</v>
@@ -27090,7 +27090,7 @@
         <v>1.13</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU131" t="n">
         <v>1.73</v>
@@ -27290,10 +27290,10 @@
         <v>1.33</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU132" t="n">
         <v>2.35</v>
@@ -27493,7 +27493,7 @@
         <v>2.29</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT133" t="n">
         <v>2.44</v>
@@ -27699,7 +27699,7 @@
         <v>1.13</v>
       </c>
       <c r="AT134" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU134" t="n">
         <v>2.06</v>
@@ -28305,10 +28305,10 @@
         <v>0.86</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU137" t="n">
         <v>1.6</v>
@@ -28917,7 +28917,7 @@
         <v>1.81</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU140" t="n">
         <v>1.58</v>
@@ -29117,7 +29117,7 @@
         <v>1.29</v>
       </c>
       <c r="AS141" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT141" t="n">
         <v>1.25</v>
@@ -29726,7 +29726,7 @@
         <v>2.13</v>
       </c>
       <c r="AS144" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT144" t="n">
         <v>2.44</v>
@@ -29932,7 +29932,7 @@
         <v>1.13</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU145" t="n">
         <v>1.65</v>
@@ -30338,7 +30338,7 @@
         <v>1.13</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU147" t="n">
         <v>1.9</v>
@@ -30538,7 +30538,7 @@
         <v>1.13</v>
       </c>
       <c r="AS148" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT148" t="n">
         <v>1</v>
@@ -30744,7 +30744,7 @@
         <v>0.38</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU149" t="n">
         <v>1.61</v>
@@ -31147,10 +31147,10 @@
         <v>2.13</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT151" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU151" t="n">
         <v>2.65</v>
@@ -31553,10 +31553,10 @@
         <v>1.14</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU153" t="n">
         <v>1.98</v>
@@ -31962,7 +31962,7 @@
         <v>1.81</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU155" t="n">
         <v>1.61</v>
@@ -32365,7 +32365,7 @@
         <v>1.13</v>
       </c>
       <c r="AS157" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT157" t="n">
         <v>1.13</v>
@@ -32771,10 +32771,10 @@
         <v>0.44</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU159" t="n">
         <v>1.54</v>
@@ -32974,7 +32974,7 @@
         <v>1.25</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT160" t="n">
         <v>1.25</v>
@@ -33177,10 +33177,10 @@
         <v>0.75</v>
       </c>
       <c r="AS161" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU161" t="n">
         <v>1.38</v>
@@ -33583,10 +33583,10 @@
         <v>1.29</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU163" t="n">
         <v>2.27</v>
@@ -33789,7 +33789,7 @@
         <v>1.88</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU164" t="n">
         <v>1.62</v>
@@ -33992,7 +33992,7 @@
         <v>1.13</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU165" t="n">
         <v>1.91</v>
@@ -34395,7 +34395,7 @@
         <v>1.56</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT167" t="n">
         <v>1.56</v>
@@ -34801,7 +34801,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT169" t="n">
         <v>0.38</v>
@@ -35007,7 +35007,7 @@
         <v>1.44</v>
       </c>
       <c r="AT170" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU170" t="n">
         <v>1.49</v>
@@ -35210,7 +35210,7 @@
         <v>0.38</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU171" t="n">
         <v>1.61</v>
@@ -35413,7 +35413,7 @@
         <v>1.88</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU172" t="n">
         <v>1.57</v>
@@ -35616,7 +35616,7 @@
         <v>1.13</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU173" t="n">
         <v>1.6</v>
@@ -35816,7 +35816,7 @@
         <v>2.4</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT174" t="n">
         <v>2</v>
@@ -36222,7 +36222,7 @@
         <v>1.44</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT176" t="n">
         <v>1.5</v>
@@ -36428,7 +36428,7 @@
         <v>1.44</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU177" t="n">
         <v>1.47</v>
@@ -36631,7 +36631,7 @@
         <v>0.38</v>
       </c>
       <c r="AT178" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU178" t="n">
         <v>1.55</v>
@@ -36831,7 +36831,7 @@
         <v>1.44</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT179" t="n">
         <v>1.75</v>
@@ -37237,7 +37237,7 @@
         <v>1.11</v>
       </c>
       <c r="AS181" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT181" t="n">
         <v>1.13</v>
@@ -37440,10 +37440,10 @@
         <v>0.4</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU182" t="n">
         <v>1.98</v>
@@ -37646,7 +37646,7 @@
         <v>1.13</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU183" t="n">
         <v>2</v>
@@ -37846,7 +37846,7 @@
         <v>0.5</v>
       </c>
       <c r="AS184" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT184" t="n">
         <v>0.38</v>
@@ -38052,7 +38052,7 @@
         <v>1.13</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU185" t="n">
         <v>1.61</v>
@@ -38255,7 +38255,7 @@
         <v>1.81</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU186" t="n">
         <v>1.59</v>
@@ -38658,7 +38658,7 @@
         <v>1.5</v>
       </c>
       <c r="AS188" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT188" t="n">
         <v>1.56</v>
@@ -38864,7 +38864,7 @@
         <v>2</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU189" t="n">
         <v>2.82</v>
@@ -39270,7 +39270,7 @@
         <v>1.88</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU191" t="n">
         <v>1.52</v>
@@ -39470,7 +39470,7 @@
         <v>1.18</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT192" t="n">
         <v>1</v>
@@ -39673,10 +39673,10 @@
         <v>0.3</v>
       </c>
       <c r="AS193" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU193" t="n">
         <v>1.55</v>
@@ -39876,7 +39876,7 @@
         <v>2.27</v>
       </c>
       <c r="AS194" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT194" t="n">
         <v>2</v>
@@ -40485,7 +40485,7 @@
         <v>1.4</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT197" t="n">
         <v>1.75</v>
@@ -40691,7 +40691,7 @@
         <v>2</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU198" t="n">
         <v>2.78</v>
@@ -41297,10 +41297,10 @@
         <v>0.36</v>
       </c>
       <c r="AS201" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU201" t="n">
         <v>1.54</v>
@@ -41503,7 +41503,7 @@
         <v>1.13</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU202" t="n">
         <v>1.67</v>
@@ -41703,10 +41703,10 @@
         <v>1</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU203" t="n">
         <v>2.06</v>
@@ -42312,10 +42312,10 @@
         <v>2.18</v>
       </c>
       <c r="AS206" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT206" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU206" t="n">
         <v>1.73</v>
@@ -42518,7 +42518,7 @@
         <v>1.13</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU207" t="n">
         <v>1.58</v>
@@ -42718,7 +42718,7 @@
         <v>1</v>
       </c>
       <c r="AS208" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT208" t="n">
         <v>1.13</v>
@@ -42921,10 +42921,10 @@
         <v>1.27</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU209" t="n">
         <v>1.58</v>
@@ -43124,7 +43124,7 @@
         <v>2.08</v>
       </c>
       <c r="AS210" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT210" t="n">
         <v>2</v>
@@ -43327,10 +43327,10 @@
         <v>0.36</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU211" t="n">
         <v>1.51</v>
@@ -43530,7 +43530,7 @@
         <v>0.45</v>
       </c>
       <c r="AS212" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT212" t="n">
         <v>0.38</v>
@@ -43939,7 +43939,7 @@
         <v>1.44</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU214" t="n">
         <v>1.47</v>
@@ -44548,7 +44548,7 @@
         <v>0.38</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU217" t="n">
         <v>1.43</v>
@@ -44751,7 +44751,7 @@
         <v>1.13</v>
       </c>
       <c r="AT218" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU218" t="n">
         <v>1.54</v>
@@ -45154,7 +45154,7 @@
         <v>0.42</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT220" t="n">
         <v>0.38</v>
@@ -45766,7 +45766,7 @@
         <v>1.13</v>
       </c>
       <c r="AT223" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU223" t="n">
         <v>1.78</v>
@@ -45966,10 +45966,10 @@
         <v>0.91</v>
       </c>
       <c r="AS224" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT224" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU224" t="n">
         <v>2.36</v>
@@ -46169,7 +46169,7 @@
         <v>0.58</v>
       </c>
       <c r="AS225" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT225" t="n">
         <v>0.5</v>
@@ -46372,10 +46372,10 @@
         <v>1.42</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU226" t="n">
         <v>1.57</v>
@@ -46575,10 +46575,10 @@
         <v>0.83</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT227" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU227" t="n">
         <v>1.6</v>
@@ -46781,7 +46781,7 @@
         <v>1.13</v>
       </c>
       <c r="AT228" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU228" t="n">
         <v>1.53</v>
@@ -47184,7 +47184,7 @@
         <v>1.42</v>
       </c>
       <c r="AS230" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT230" t="n">
         <v>1.5</v>
@@ -47390,7 +47390,7 @@
         <v>1.44</v>
       </c>
       <c r="AT231" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU231" t="n">
         <v>1.49</v>
@@ -47793,7 +47793,7 @@
         <v>1.5</v>
       </c>
       <c r="AS233" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT233" t="n">
         <v>1.75</v>
@@ -48199,7 +48199,7 @@
         <v>1.54</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT235" t="n">
         <v>1.5</v>
@@ -48608,7 +48608,7 @@
         <v>0.38</v>
       </c>
       <c r="AT237" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU237" t="n">
         <v>1.45</v>
@@ -49217,7 +49217,7 @@
         <v>1.5</v>
       </c>
       <c r="AT240" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU240" t="n">
         <v>1.51</v>
@@ -49620,7 +49620,7 @@
         <v>0.54</v>
       </c>
       <c r="AS242" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT242" t="n">
         <v>0.5</v>
@@ -50026,7 +50026,7 @@
         <v>1.46</v>
       </c>
       <c r="AS244" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT244" t="n">
         <v>1.56</v>
@@ -50229,10 +50229,10 @@
         <v>1</v>
       </c>
       <c r="AS245" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT245" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU245" t="n">
         <v>1.59</v>
@@ -50432,10 +50432,10 @@
         <v>0.31</v>
       </c>
       <c r="AS246" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT246" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU246" t="n">
         <v>2.44</v>
@@ -50635,10 +50635,10 @@
         <v>1.54</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT247" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU247" t="n">
         <v>1.98</v>
@@ -51044,7 +51044,7 @@
         <v>2.5</v>
       </c>
       <c r="AT249" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU249" t="n">
         <v>2.05</v>
@@ -51450,7 +51450,7 @@
         <v>2</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU251" t="n">
         <v>2.63</v>
@@ -51650,10 +51650,10 @@
         <v>0.92</v>
       </c>
       <c r="AS252" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT252" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU252" t="n">
         <v>2.53</v>
@@ -51856,7 +51856,7 @@
         <v>1.44</v>
       </c>
       <c r="AT253" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU253" t="n">
         <v>1.41</v>
@@ -52665,7 +52665,7 @@
         <v>1.07</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT257" t="n">
         <v>1.13</v>
@@ -52868,7 +52868,7 @@
         <v>1.57</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT258" t="n">
         <v>1.75</v>
@@ -53277,7 +53277,7 @@
         <v>2</v>
       </c>
       <c r="AT260" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU260" t="n">
         <v>2.62</v>
@@ -53683,7 +53683,7 @@
         <v>1.5</v>
       </c>
       <c r="AT262" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU262" t="n">
         <v>1.47</v>
@@ -53883,10 +53883,10 @@
         <v>0.71</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT263" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU263" t="n">
         <v>1.49</v>
@@ -54089,7 +54089,7 @@
         <v>1.13</v>
       </c>
       <c r="AT264" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU264" t="n">
         <v>1.73</v>
@@ -54289,10 +54289,10 @@
         <v>0.29</v>
       </c>
       <c r="AS265" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT265" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU265" t="n">
         <v>1.62</v>
@@ -54495,7 +54495,7 @@
         <v>2.5</v>
       </c>
       <c r="AT266" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU266" t="n">
         <v>2.11</v>
@@ -54695,10 +54695,10 @@
         <v>2.21</v>
       </c>
       <c r="AS267" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT267" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AU267" t="n">
         <v>2.39</v>
@@ -54901,7 +54901,7 @@
         <v>1.5</v>
       </c>
       <c r="AT268" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU268" t="n">
         <v>1.55</v>
@@ -55101,7 +55101,7 @@
         <v>1.57</v>
       </c>
       <c r="AS269" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT269" t="n">
         <v>1.56</v>
@@ -55304,10 +55304,10 @@
         <v>0.79</v>
       </c>
       <c r="AS270" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT270" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU270" t="n">
         <v>1.98</v>
@@ -55507,7 +55507,7 @@
         <v>1.21</v>
       </c>
       <c r="AS271" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AT271" t="n">
         <v>1.25</v>
@@ -57592,6 +57592,1630 @@
       </c>
       <c r="BK281" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" t="n">
+        <v>2433271</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E282" s="2" t="n">
+        <v>45059.57291666666</v>
+      </c>
+      <c r="F282" t="n">
+        <v>32</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>Volendam</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="I282" t="n">
+        <v>1</v>
+      </c>
+      <c r="J282" t="n">
+        <v>1</v>
+      </c>
+      <c r="K282" t="n">
+        <v>2</v>
+      </c>
+      <c r="L282" t="n">
+        <v>2</v>
+      </c>
+      <c r="M282" t="n">
+        <v>1</v>
+      </c>
+      <c r="N282" t="n">
+        <v>3</v>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>['37', '90+1']</t>
+        </is>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="Q282" t="n">
+        <v>6</v>
+      </c>
+      <c r="R282" t="n">
+        <v>5</v>
+      </c>
+      <c r="S282" t="n">
+        <v>11</v>
+      </c>
+      <c r="T282" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U282" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="V282" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W282" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X282" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y282" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Z282" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA282" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB282" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC282" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AD282" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE282" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AF282" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG282" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH282" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI282" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ282" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK282" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL282" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM282" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN282" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO282" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP282" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ282" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR282" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS282" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT282" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU282" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV282" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW282" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX282" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY282" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ282" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA282" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB282" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC282" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD282" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE282" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF282" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG282" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH282" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI282" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ282" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK282" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="n">
+        <v>2433274</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E283" s="2" t="n">
+        <v>45059.625</v>
+      </c>
+      <c r="F283" t="n">
+        <v>32</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0</v>
+      </c>
+      <c r="L283" t="n">
+        <v>0</v>
+      </c>
+      <c r="M283" t="n">
+        <v>0</v>
+      </c>
+      <c r="N283" t="n">
+        <v>0</v>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q283" t="n">
+        <v>5</v>
+      </c>
+      <c r="R283" t="n">
+        <v>6</v>
+      </c>
+      <c r="S283" t="n">
+        <v>11</v>
+      </c>
+      <c r="T283" t="n">
+        <v>2</v>
+      </c>
+      <c r="U283" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V283" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W283" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X283" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y283" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z283" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA283" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB283" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC283" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AD283" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE283" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AF283" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG283" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH283" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI283" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="AJ283" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK283" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL283" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM283" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN283" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO283" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP283" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ283" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR283" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS283" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT283" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU283" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV283" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AW283" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX283" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY283" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ283" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="BA283" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB283" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC283" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD283" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE283" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF283" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG283" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH283" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI283" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ283" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK283" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" t="n">
+        <v>2433270</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E284" s="2" t="n">
+        <v>45059.66666666666</v>
+      </c>
+      <c r="F284" t="n">
+        <v>32</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>RKC Waalwijk</t>
+        </is>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0</v>
+      </c>
+      <c r="L284" t="n">
+        <v>2</v>
+      </c>
+      <c r="M284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N284" t="n">
+        <v>2</v>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>['60', '90+3']</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q284" t="n">
+        <v>4</v>
+      </c>
+      <c r="R284" t="n">
+        <v>4</v>
+      </c>
+      <c r="S284" t="n">
+        <v>8</v>
+      </c>
+      <c r="T284" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U284" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="V284" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="W284" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X284" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y284" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Z284" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AA284" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB284" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC284" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AD284" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE284" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AF284" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG284" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH284" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI284" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ284" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AK284" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AL284" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM284" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN284" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO284" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP284" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ284" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR284" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS284" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT284" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU284" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV284" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW284" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX284" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AY284" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ284" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="BA284" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB284" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC284" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD284" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE284" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BF284" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG284" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH284" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI284" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ284" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK284" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" t="n">
+        <v>2433275</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E285" s="2" t="n">
+        <v>45060.30208333334</v>
+      </c>
+      <c r="F285" t="n">
+        <v>32</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Cambuur</t>
+        </is>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L285" t="n">
+        <v>2</v>
+      </c>
+      <c r="M285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N285" t="n">
+        <v>2</v>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>['56', '61']</t>
+        </is>
+      </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q285" t="n">
+        <v>4</v>
+      </c>
+      <c r="R285" t="n">
+        <v>4</v>
+      </c>
+      <c r="S285" t="n">
+        <v>8</v>
+      </c>
+      <c r="T285" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U285" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="V285" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="W285" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X285" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y285" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z285" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA285" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB285" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC285" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AD285" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AE285" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AF285" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG285" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH285" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI285" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="AJ285" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK285" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AL285" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM285" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN285" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO285" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP285" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AQ285" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR285" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS285" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT285" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU285" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV285" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW285" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX285" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AY285" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ285" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="BA285" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB285" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC285" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD285" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE285" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF285" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG285" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH285" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI285" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ285" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK285" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" t="n">
+        <v>2433272</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E286" s="2" t="n">
+        <v>45060.48958333334</v>
+      </c>
+      <c r="F286" t="n">
+        <v>32</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Go Ahead Eagles</t>
+        </is>
+      </c>
+      <c r="I286" t="n">
+        <v>2</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" t="n">
+        <v>2</v>
+      </c>
+      <c r="L286" t="n">
+        <v>3</v>
+      </c>
+      <c r="M286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N286" t="n">
+        <v>3</v>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>['15', '18', '54']</t>
+        </is>
+      </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q286" t="n">
+        <v>1</v>
+      </c>
+      <c r="R286" t="n">
+        <v>2</v>
+      </c>
+      <c r="S286" t="n">
+        <v>3</v>
+      </c>
+      <c r="T286" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U286" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V286" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W286" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X286" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y286" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z286" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA286" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB286" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC286" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AD286" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AE286" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF286" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG286" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH286" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI286" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AJ286" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AK286" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AL286" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM286" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN286" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO286" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP286" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AQ286" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AR286" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AS286" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT286" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AU286" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AV286" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW286" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AX286" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AY286" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ286" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BA286" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB286" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC286" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD286" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE286" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF286" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG286" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH286" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI286" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ286" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK286" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" t="n">
+        <v>2433267</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E287" s="2" t="n">
+        <v>45060.625</v>
+      </c>
+      <c r="F287" t="n">
+        <v>32</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Emmen</t>
+        </is>
+      </c>
+      <c r="I287" t="n">
+        <v>5</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" t="n">
+        <v>5</v>
+      </c>
+      <c r="L287" t="n">
+        <v>5</v>
+      </c>
+      <c r="M287" t="n">
+        <v>1</v>
+      </c>
+      <c r="N287" t="n">
+        <v>6</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>['13', '15', '23', '28', '45+1']</t>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q287" t="n">
+        <v>13</v>
+      </c>
+      <c r="R287" t="n">
+        <v>3</v>
+      </c>
+      <c r="S287" t="n">
+        <v>16</v>
+      </c>
+      <c r="T287" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U287" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V287" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W287" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X287" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y287" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z287" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA287" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB287" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC287" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD287" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AE287" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF287" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG287" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH287" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI287" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AJ287" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK287" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL287" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM287" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN287" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO287" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP287" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AQ287" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AR287" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS287" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT287" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU287" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AV287" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW287" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX287" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AY287" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ287" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="BA287" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB287" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC287" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD287" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE287" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF287" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG287" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH287" t="n">
+        <v>19</v>
+      </c>
+      <c r="BI287" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ287" t="n">
+        <v>29</v>
+      </c>
+      <c r="BK287" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" t="n">
+        <v>2433273</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E288" s="2" t="n">
+        <v>45060.625</v>
+      </c>
+      <c r="F288" t="n">
+        <v>32</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Fortuna Sittard</t>
+        </is>
+      </c>
+      <c r="I288" t="n">
+        <v>1</v>
+      </c>
+      <c r="J288" t="n">
+        <v>1</v>
+      </c>
+      <c r="K288" t="n">
+        <v>2</v>
+      </c>
+      <c r="L288" t="n">
+        <v>2</v>
+      </c>
+      <c r="M288" t="n">
+        <v>1</v>
+      </c>
+      <c r="N288" t="n">
+        <v>3</v>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>['25', '82']</t>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="Q288" t="n">
+        <v>14</v>
+      </c>
+      <c r="R288" t="n">
+        <v>1</v>
+      </c>
+      <c r="S288" t="n">
+        <v>15</v>
+      </c>
+      <c r="T288" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U288" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V288" t="n">
+        <v>11</v>
+      </c>
+      <c r="W288" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X288" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y288" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z288" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA288" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB288" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AC288" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD288" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE288" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF288" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG288" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH288" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AI288" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AJ288" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AK288" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AL288" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM288" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN288" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO288" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP288" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AQ288" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR288" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS288" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AT288" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU288" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AV288" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW288" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AX288" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AY288" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ288" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BA288" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB288" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC288" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD288" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE288" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF288" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG288" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH288" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI288" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ288" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK288" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B289" t="n">
+        <v>2433268</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Netherlands Eredivisie</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E289" s="2" t="n">
+        <v>45062.41666666666</v>
+      </c>
+      <c r="F289" t="n">
+        <v>32</v>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>Groningen</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="I289" t="n">
+        <v>1</v>
+      </c>
+      <c r="J289" t="n">
+        <v>1</v>
+      </c>
+      <c r="K289" t="n">
+        <v>2</v>
+      </c>
+      <c r="L289" t="n">
+        <v>2</v>
+      </c>
+      <c r="M289" t="n">
+        <v>3</v>
+      </c>
+      <c r="N289" t="n">
+        <v>5</v>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>['38', '87']</t>
+        </is>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>['18', '68', '81']</t>
+        </is>
+      </c>
+      <c r="Q289" t="n">
+        <v>3</v>
+      </c>
+      <c r="R289" t="n">
+        <v>10</v>
+      </c>
+      <c r="S289" t="n">
+        <v>13</v>
+      </c>
+      <c r="T289" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U289" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V289" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W289" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X289" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y289" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z289" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA289" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB289" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC289" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AD289" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE289" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF289" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG289" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH289" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI289" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="AJ289" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK289" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AL289" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM289" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN289" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO289" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP289" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AQ289" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR289" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AS289" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT289" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AU289" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV289" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AW289" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AX289" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY289" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ289" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BA289" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB289" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC289" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BD289" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE289" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BF289" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG289" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH289" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI289" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ289" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK289" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -61131,16 +61131,16 @@
         <v>297</v>
       </c>
       <c r="P312" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q312">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R312">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S312">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T312">
         <v>4.33</v>
@@ -61260,19 +61260,19 @@
         <v>3</v>
       </c>
       <c r="BG312">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH312">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BI312">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BJ312">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BK312">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Netherlands Eredivisie_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="434">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -910,6 +910,9 @@
     <t>['47']</t>
   </si>
   <si>
+    <t>['53']</t>
+  </si>
+  <si>
     <t>['48', '51', '62']</t>
   </si>
   <si>
@@ -1145,9 +1148,6 @@
   </si>
   <si>
     <t>['76']</t>
-  </si>
-  <si>
-    <t>['53']</t>
   </si>
   <si>
     <t>['22', '34']</t>
@@ -1677,7 +1677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK312"/>
+  <dimension ref="A1:BK313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2011,7 +2011,7 @@
         <v>1.17</v>
       </c>
       <c r="AT2">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2112,7 +2112,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2303,7 +2303,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q4">
         <v>10</v>
@@ -2685,7 +2685,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2876,7 +2876,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -3067,7 +3067,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3640,7 +3640,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -3831,7 +3831,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -4022,7 +4022,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4595,7 +4595,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="AT18">
         <v>1</v>
@@ -5168,7 +5168,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5359,7 +5359,7 @@
         <v>83</v>
       </c>
       <c r="P20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5550,7 +5550,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5741,7 +5741,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q22">
         <v>6</v>
@@ -6696,7 +6696,7 @@
         <v>83</v>
       </c>
       <c r="P27" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6786,7 +6786,7 @@
         <v>1.59</v>
       </c>
       <c r="AT27">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AU27">
         <v>1.3</v>
@@ -6887,7 +6887,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -7460,7 +7460,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7651,7 +7651,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -8033,7 +8033,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8502,7 +8502,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="AT36">
         <v>0.35</v>
@@ -8797,7 +8797,7 @@
         <v>109</v>
       </c>
       <c r="P38" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -9179,7 +9179,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9266,7 +9266,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="AT40">
         <v>1.82</v>
@@ -9561,7 +9561,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9752,7 +9752,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q43">
         <v>9</v>
@@ -9943,7 +9943,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -10516,7 +10516,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q47">
         <v>9</v>
@@ -11853,7 +11853,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -12134,7 +12134,7 @@
         <v>2.35</v>
       </c>
       <c r="AT55">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AU55">
         <v>2.49</v>
@@ -12808,7 +12808,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q59">
         <v>16</v>
@@ -13381,7 +13381,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q62">
         <v>13</v>
@@ -13572,7 +13572,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -14145,7 +14145,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -14336,7 +14336,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -14614,7 +14614,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="AT68">
         <v>1.12</v>
@@ -14909,7 +14909,7 @@
         <v>136</v>
       </c>
       <c r="P70" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15291,7 +15291,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15381,7 +15381,7 @@
         <v>1.76</v>
       </c>
       <c r="AT72">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AU72">
         <v>1.69</v>
@@ -15673,7 +15673,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15864,7 +15864,7 @@
         <v>139</v>
       </c>
       <c r="P75" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -16055,7 +16055,7 @@
         <v>140</v>
       </c>
       <c r="P76" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16628,7 +16628,7 @@
         <v>142</v>
       </c>
       <c r="P79" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q79">
         <v>6</v>
@@ -17201,7 +17201,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -17392,7 +17392,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17965,7 +17965,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18434,7 +18434,7 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="AT88">
         <v>0.35</v>
@@ -18729,7 +18729,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q90">
         <v>1</v>
@@ -18920,7 +18920,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q91">
         <v>13</v>
@@ -19111,7 +19111,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q92">
         <v>12</v>
@@ -19302,7 +19302,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19875,7 +19875,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -20066,7 +20066,7 @@
         <v>83</v>
       </c>
       <c r="P97" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q97">
         <v>7</v>
@@ -20257,7 +20257,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q98">
         <v>2</v>
@@ -20538,7 +20538,7 @@
         <v>1.61</v>
       </c>
       <c r="AT99">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AU99">
         <v>1.55</v>
@@ -20639,7 +20639,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q100">
         <v>8</v>
@@ -20830,7 +20830,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -21021,7 +21021,7 @@
         <v>161</v>
       </c>
       <c r="P102" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -21212,7 +21212,7 @@
         <v>162</v>
       </c>
       <c r="P103" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -21872,7 +21872,7 @@
         <v>1.2</v>
       </c>
       <c r="AS106">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="AT106">
         <v>0.65</v>
@@ -22167,7 +22167,7 @@
         <v>83</v>
       </c>
       <c r="P108" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -22358,7 +22358,7 @@
         <v>83</v>
       </c>
       <c r="P109" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22448,7 +22448,7 @@
         <v>1.24</v>
       </c>
       <c r="AT109">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AU109">
         <v>1.56</v>
@@ -23209,7 +23209,7 @@
         <v>1</v>
       </c>
       <c r="AS113">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="AT113">
         <v>0.76</v>
@@ -23313,7 +23313,7 @@
         <v>83</v>
       </c>
       <c r="P114" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -23504,7 +23504,7 @@
         <v>105</v>
       </c>
       <c r="P115" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -23695,7 +23695,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q116">
         <v>8</v>
@@ -23886,7 +23886,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q117">
         <v>8</v>
@@ -24268,7 +24268,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -24459,7 +24459,7 @@
         <v>83</v>
       </c>
       <c r="P120" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24650,7 +24650,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24841,7 +24841,7 @@
         <v>83</v>
       </c>
       <c r="P122" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -25414,7 +25414,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -25796,7 +25796,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -26074,7 +26074,7 @@
         <v>0.43</v>
       </c>
       <c r="AS128">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="AT128">
         <v>0.59</v>
@@ -26560,7 +26560,7 @@
         <v>83</v>
       </c>
       <c r="P131" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26841,7 +26841,7 @@
         <v>2.59</v>
       </c>
       <c r="AT132">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AU132">
         <v>2.35</v>
@@ -26942,7 +26942,7 @@
         <v>99</v>
       </c>
       <c r="P133" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q133">
         <v>5</v>
@@ -27133,7 +27133,7 @@
         <v>83</v>
       </c>
       <c r="P134" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -27324,7 +27324,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q135">
         <v>1</v>
@@ -27706,7 +27706,7 @@
         <v>83</v>
       </c>
       <c r="P137" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -27897,7 +27897,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q138">
         <v>9</v>
@@ -28661,7 +28661,7 @@
         <v>184</v>
       </c>
       <c r="P142" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q142">
         <v>1</v>
@@ -28852,7 +28852,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -29043,7 +29043,7 @@
         <v>83</v>
       </c>
       <c r="P144" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -29616,7 +29616,7 @@
         <v>187</v>
       </c>
       <c r="P147" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q147">
         <v>9</v>
@@ -29998,7 +29998,7 @@
         <v>83</v>
       </c>
       <c r="P149" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -30088,7 +30088,7 @@
         <v>0.53</v>
       </c>
       <c r="AT149">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AU149">
         <v>1.61</v>
@@ -30658,7 +30658,7 @@
         <v>1.75</v>
       </c>
       <c r="AS152">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="AT152">
         <v>1.56</v>
@@ -31335,7 +31335,7 @@
         <v>192</v>
       </c>
       <c r="P156" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31526,7 +31526,7 @@
         <v>146</v>
       </c>
       <c r="P157" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q157">
         <v>6</v>
@@ -33054,7 +33054,7 @@
         <v>199</v>
       </c>
       <c r="P165" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -33335,7 +33335,7 @@
         <v>1.06</v>
       </c>
       <c r="AT166">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AU166">
         <v>1.91</v>
@@ -33436,7 +33436,7 @@
         <v>200</v>
       </c>
       <c r="P167" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -33714,7 +33714,7 @@
         <v>2.22</v>
       </c>
       <c r="AS168">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="AT168">
         <v>2.47</v>
@@ -33818,7 +33818,7 @@
         <v>202</v>
       </c>
       <c r="P169" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -34009,7 +34009,7 @@
         <v>203</v>
       </c>
       <c r="P170" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -34200,7 +34200,7 @@
         <v>204</v>
       </c>
       <c r="P171" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q171">
         <v>6</v>
@@ -34672,7 +34672,7 @@
         <v>1.12</v>
       </c>
       <c r="AT173">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AU173">
         <v>1.6</v>
@@ -35155,7 +35155,7 @@
         <v>207</v>
       </c>
       <c r="P176" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q176">
         <v>6</v>
@@ -35537,7 +35537,7 @@
         <v>83</v>
       </c>
       <c r="P178" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35728,7 +35728,7 @@
         <v>208</v>
       </c>
       <c r="P179" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q179">
         <v>12</v>
@@ -36110,7 +36110,7 @@
         <v>181</v>
       </c>
       <c r="P181" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q181">
         <v>5</v>
@@ -36874,7 +36874,7 @@
         <v>83</v>
       </c>
       <c r="P185" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -37065,7 +37065,7 @@
         <v>212</v>
       </c>
       <c r="P186" t="s">
-        <v>377</v>
+        <v>298</v>
       </c>
       <c r="Q186">
         <v>7</v>
@@ -37725,7 +37725,7 @@
         <v>0.7</v>
       </c>
       <c r="AS189">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="AT189">
         <v>0.47</v>
@@ -37829,7 +37829,7 @@
         <v>216</v>
       </c>
       <c r="P190" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q190">
         <v>10</v>
@@ -38593,7 +38593,7 @@
         <v>220</v>
       </c>
       <c r="P194" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -39447,7 +39447,7 @@
         <v>2.06</v>
       </c>
       <c r="AT198">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AU198">
         <v>2.78</v>
@@ -41458,7 +41458,7 @@
         <v>83</v>
       </c>
       <c r="P209" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -42309,7 +42309,7 @@
         <v>1.45</v>
       </c>
       <c r="AS213">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="AT213">
         <v>1.39</v>
@@ -42503,7 +42503,7 @@
         <v>1.53</v>
       </c>
       <c r="AT214">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AU214">
         <v>1.47</v>
@@ -45177,7 +45177,7 @@
         <v>1.06</v>
       </c>
       <c r="AT228">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AU228">
         <v>1.53</v>
@@ -46320,7 +46320,7 @@
         <v>2.15</v>
       </c>
       <c r="AS234">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="AT234">
         <v>2.06</v>
@@ -46424,7 +46424,7 @@
         <v>214</v>
       </c>
       <c r="P235" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q235">
         <v>9</v>
@@ -47952,7 +47952,7 @@
         <v>249</v>
       </c>
       <c r="P243" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q243">
         <v>3</v>
@@ -48615,7 +48615,7 @@
         <v>1.88</v>
       </c>
       <c r="AT246">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AU246">
         <v>1.98</v>
@@ -48907,7 +48907,7 @@
         <v>253</v>
       </c>
       <c r="P248" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q248">
         <v>4</v>
@@ -49185,7 +49185,7 @@
         <v>0.77</v>
       </c>
       <c r="AS249">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="AT249">
         <v>0.59</v>
@@ -52432,10 +52432,10 @@
         <v>1.64</v>
       </c>
       <c r="AS266">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="AT266">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AU266">
         <v>2.11</v>
@@ -52918,7 +52918,7 @@
         <v>269</v>
       </c>
       <c r="P269" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q269">
         <v>4</v>
@@ -55297,7 +55297,7 @@
         <v>1.33</v>
       </c>
       <c r="AS281">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="AT281">
         <v>1.24</v>
@@ -55401,7 +55401,7 @@
         <v>275</v>
       </c>
       <c r="P282" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q282">
         <v>6</v>
@@ -55491,7 +55491,7 @@
         <v>1.65</v>
       </c>
       <c r="AT282">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AU282">
         <v>1.5</v>
@@ -57120,7 +57120,7 @@
         <v>283</v>
       </c>
       <c r="P291" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q291">
         <v>4</v>
@@ -59117,7 +59117,7 @@
         <v>2.13</v>
       </c>
       <c r="AS301">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="AT301">
         <v>2</v>
@@ -59502,7 +59502,7 @@
         <v>0.71</v>
       </c>
       <c r="AT303">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AU303">
         <v>1.46</v>
@@ -60457,7 +60457,7 @@
         <v>1.28</v>
       </c>
       <c r="AT308">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AU308">
         <v>1.71</v>
@@ -60648,7 +60648,7 @@
         <v>1.58</v>
       </c>
       <c r="AT309">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="AU309">
         <v>1.61</v>
@@ -60836,7 +60836,7 @@
         <v>1.31</v>
       </c>
       <c r="AS310">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AT310">
         <v>1.28</v>
@@ -61027,7 +61027,7 @@
         <v>1.54</v>
       </c>
       <c r="AS311">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="AT311">
         <v>1.58</v>
@@ -61218,10 +61218,10 @@
         <v>1.94</v>
       </c>
       <c r="AS312">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="AT312">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AU312">
         <v>1.61</v>
@@ -61273,6 +61273,197 @@
       </c>
       <c r="BK312">
         <v>14</v>
+      </c>
+    </row>
+    <row r="313" spans="1:63">
+      <c r="A313" s="1">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>6342015</v>
+      </c>
+      <c r="C313" t="s">
+        <v>63</v>
+      </c>
+      <c r="D313" t="s">
+        <v>64</v>
+      </c>
+      <c r="E313" s="2">
+        <v>45088.39583333334</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+      <c r="G313" t="s">
+        <v>81</v>
+      </c>
+      <c r="H313" t="s">
+        <v>82</v>
+      </c>
+      <c r="I313">
+        <v>0</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="K313">
+        <v>0</v>
+      </c>
+      <c r="L313">
+        <v>1</v>
+      </c>
+      <c r="M313">
+        <v>0</v>
+      </c>
+      <c r="N313">
+        <v>1</v>
+      </c>
+      <c r="O313" t="s">
+        <v>298</v>
+      </c>
+      <c r="P313" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q313">
+        <v>3</v>
+      </c>
+      <c r="R313">
+        <v>6</v>
+      </c>
+      <c r="S313">
+        <v>9</v>
+      </c>
+      <c r="T313">
+        <v>1.84</v>
+      </c>
+      <c r="U313">
+        <v>2.7</v>
+      </c>
+      <c r="V313">
+        <v>5.8</v>
+      </c>
+      <c r="W313">
+        <v>1.29</v>
+      </c>
+      <c r="X313">
+        <v>3.25</v>
+      </c>
+      <c r="Y313">
+        <v>2.3</v>
+      </c>
+      <c r="Z313">
+        <v>1.57</v>
+      </c>
+      <c r="AA313">
+        <v>5</v>
+      </c>
+      <c r="AB313">
+        <v>1.13</v>
+      </c>
+      <c r="AC313">
+        <v>1.4</v>
+      </c>
+      <c r="AD313">
+        <v>5.1</v>
+      </c>
+      <c r="AE313">
+        <v>7.1</v>
+      </c>
+      <c r="AF313">
+        <v>1.01</v>
+      </c>
+      <c r="AG313">
+        <v>19</v>
+      </c>
+      <c r="AH313">
+        <v>1.17</v>
+      </c>
+      <c r="AI313">
+        <v>4.9</v>
+      </c>
+      <c r="AJ313">
+        <v>1.57</v>
+      </c>
+      <c r="AK313">
+        <v>2.31</v>
+      </c>
+      <c r="AL313">
+        <v>1.81</v>
+      </c>
+      <c r="AM313">
+        <v>1.95</v>
+      </c>
+      <c r="AN313">
+        <v>1.11</v>
+      </c>
+      <c r="AO313">
+        <v>1.17</v>
+      </c>
+      <c r="AP313">
+        <v>2.8</v>
+      </c>
+      <c r="AQ313">
+        <v>1.92</v>
+      </c>
+      <c r="AR313">
+        <v>1.7</v>
+      </c>
+      <c r="AS313">
+        <v>1.95</v>
+      </c>
+      <c r="AT313">
+        <v>1.66</v>
+      </c>
+      <c r="AU313">
+        <v>2.14</v>
+      </c>
+      <c r="AV313">
+        <v>1.47</v>
+      </c>
+      <c r="AW313">
+        <v>3.61</v>
+      </c>
+      <c r="AX313">
+        <v>1.33</v>
+      </c>
+      <c r="AY313">
+        <v>10</v>
+      </c>
+      <c r="AZ313">
+        <v>4.1</v>
+      </c>
+      <c r="BA313">
+        <v>1.12</v>
+      </c>
+      <c r="BB313">
+        <v>1.26</v>
+      </c>
+      <c r="BC313">
+        <v>1.48</v>
+      </c>
+      <c r="BD313">
+        <v>1.8</v>
+      </c>
+      <c r="BE313">
+        <v>2.23</v>
+      </c>
+      <c r="BF313">
+        <v>10</v>
+      </c>
+      <c r="BG313">
+        <v>4</v>
+      </c>
+      <c r="BH313">
+        <v>5</v>
+      </c>
+      <c r="BI313">
+        <v>4</v>
+      </c>
+      <c r="BJ313">
+        <v>15</v>
+      </c>
+      <c r="BK313">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
